--- a/medicine/Enfance/Kevin_Henkes/Kevin_Henkes.xlsx
+++ b/medicine/Enfance/Kevin_Henkes/Kevin_Henkes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kevin Henkes, né le 27 novembre 1960 (63 ans) à Racine dans le Wisconsin, est un écrivain et illustrateur américain, auteur de littérature d'enfance et de jeunesse.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,15 +551,17 @@
           <t>Quelques prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>« Honor Book » de la Médaille Caldecott 1994[1] pour Oscar [« Owen »]
-« Honor Book » de la Médaille Newbery 2004[2] pour Les Yeux tournés vers l'océan  [« Olive's Ocean »]
-« Honor Book » de la Médaille Caldecott 2005[1] pour Le Petit Bol de lait dans le ciel [« Kitten's first full moon »]
-« Honor Book » de la Médaille Newbery 2014[2] pour (en) The Year of Billy Miller
-« Honor Book » de la Médaille Caldecott 2016[1] pour L'Attente [« Waiting »]
-(international) « Honour List » 2018[3] de l' IBBY pour L'Attente [« Waiting »]
- Prix Libbylit 2018[4] décerné par l' IBBY, catégorie Petite enfance, pour L'Oeuf [« Egg »]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>« Honor Book » de la Médaille Caldecott 1994 pour Oscar [« Owen »]
+« Honor Book » de la Médaille Newbery 2004 pour Les Yeux tournés vers l'océan  [« Olive's Ocean »]
+« Honor Book » de la Médaille Caldecott 2005 pour Le Petit Bol de lait dans le ciel [« Kitten's first full moon »]
+« Honor Book » de la Médaille Newbery 2014 pour (en) The Year of Billy Miller
+« Honor Book » de la Médaille Caldecott 2016 pour L'Attente [« Waiting »]
+(international) « Honour List » 2018 de l' IBBY pour L'Attente [« Waiting »]
+ Prix Libbylit 2018 décerné par l' IBBY, catégorie Petite enfance, pour L'Oeuf [« Egg »]</t>
         </is>
       </c>
     </row>
@@ -573,7 +589,9 @@
           <t>Œuvres traduites en français</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Léo et son grand-père [« Granda and Bo »], trad. de Bruno Arcadias, Paris, Éditions Gallimard, coll. « Folio cadet », 1986, 32 p.  (ISBN 2-07-031136-8)
 Walter vient en week-end [« A Weekend with Wendell »], trad. d’Isabel Finkenstaedt, Paris, Éditions Flammarion, 1987, 30 p.  (ISBN 2-08-171157-5)
